--- a/rider/weekly/2017_10.xlsx
+++ b/rider/weekly/2017_10.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>242</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>315</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>175</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>226.65</c:v>
+                  <c:v>228.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.84</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>221</c:v>
+                  <c:v>212.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225.67</c:v>
+                  <c:v>230.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>241</c:v>
+                  <c:v>238.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116.15</c:v>
+                  <c:v>117.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.89</c:v>
+                  <c:v>97.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D2">
-        <v>226.65</v>
+        <v>228.94</v>
       </c>
       <c r="E2">
         <v>108.68</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>209.84</v>
+        <v>211</v>
       </c>
       <c r="E3">
         <v>108.84</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>221</v>
+        <v>212.05</v>
       </c>
       <c r="E4">
         <v>109</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>225.67</v>
+        <v>230.17</v>
       </c>
       <c r="E5">
         <v>109.16</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="D6">
-        <v>241</v>
+        <v>238.79</v>
       </c>
       <c r="E6">
         <v>109.33</v>
@@ -898,7 +898,7 @@
         <v>102</v>
       </c>
       <c r="D7">
-        <v>116.15</v>
+        <v>117.05</v>
       </c>
       <c r="E7">
         <v>109.49</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8">
-        <v>98.89</v>
+        <v>97.89</v>
       </c>
       <c r="E8">
         <v>109.65</v>
